--- a/weekly_schedule_heatmap_example.xlsx
+++ b/weekly_schedule_heatmap_example.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Heatmap Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Programs Included" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,1030 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Included Programs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4051_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4041_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3065_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _5214_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _1225_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2037_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _5085_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _1203_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2179_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4005_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2073_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3401_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3401_1_C</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4041_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4051_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3065_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _5214_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2037_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _1225_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _5085_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4005_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _5250_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3401_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4040_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _1120_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _1202_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4040_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _1202_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3401_1_D</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2197_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2187_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4080_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4039_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3022_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _1065_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4039_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3022_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2035_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4098_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2095_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2057_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4053_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _1030_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4200_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2109_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _1115_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _1105_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2035_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2057_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2186_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2196_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4053_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2078_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _5220_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _5230_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3041_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3027_1_D</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _5082_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _1071_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3044_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4127_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3027_1_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _5082_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _1071_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4127_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3027_1_F</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4061_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3027_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2017_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _5212_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3027_1_C</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2176_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4061_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3027_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _1094_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3070_1_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3024_1_F</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3070_1_D</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _1054_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3070_1_F</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3024_1_D</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2041_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3024_1_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _1221_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2752_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3070_1_C</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3024_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _5006_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2050_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4044_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _1097_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3070_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4026_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3024_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2050_1_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3024_1_C</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4044_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _4026_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _3070_1_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ClassTimetable_24F    _2198_1_A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>